--- a/Lifetime_Dorkel_Mode_300.15K.xlsx
+++ b/Lifetime_Dorkel_Mode_300.15K.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,2234 +393,1386 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>3053668824197620</v>
+        <v>2.095259613133127E+16</v>
       </c>
       <c r="B2">
-        <v>8.549436026118178</v>
+        <v>593.3186903576812</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2999864980490457</v>
+        <v>1.898157252145197E+16</v>
       </c>
       <c r="B3">
-        <v>8.573472693478713</v>
+        <v>623.1122027234539</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2933421108888372</v>
+        <v>1.732132041864793E+16</v>
       </c>
       <c r="B4">
-        <v>8.590367481048613</v>
+        <v>681.7584893082432</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>2867048453368629</v>
+        <v>1.590788009270409E+16</v>
       </c>
       <c r="B5">
-        <v>8.620903378913413</v>
+        <v>734.4500453359924</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>2798987781827516</v>
+        <v>1.469617922697749E+16</v>
       </c>
       <c r="B6">
-        <v>8.640632463014136</v>
+        <v>786.5863233134521</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>2733929272659719</v>
+        <v>1.364344087031009E+16</v>
       </c>
       <c r="B7">
-        <v>8.669901253714972</v>
+        <v>836.0795196935476</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>2665059915733615</v>
+        <v>1.271839482425982E+16</v>
       </c>
       <c r="B8">
-        <v>8.693232247446439</v>
+        <v>883.3028398942018</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>2600243901459795</v>
+        <v>1.189832086946765E+16</v>
       </c>
       <c r="B9">
-        <v>8.725533330869316</v>
+        <v>927.0438643460917</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>2532837500609934</v>
+        <v>1.116283036302834E+16</v>
       </c>
       <c r="B10">
-        <v>8.739398192133011</v>
+        <v>974.0264463670666</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>2467436173008174</v>
+        <v>1.050930823531873E+16</v>
       </c>
       <c r="B11">
-        <v>8.757739276361018</v>
+        <v>1019.560045540656</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>2404867603852520</v>
+        <v>9913538412356426</v>
       </c>
       <c r="B12">
-        <v>8.783940527273767</v>
+        <v>1055.742613463218</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>2341454534590531</v>
+        <v>9371227002018716</v>
       </c>
       <c r="B13">
-        <v>8.79722517297809</v>
+        <v>1097.041540971114</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>2281878477812514</v>
+        <v>8878215072057704</v>
       </c>
       <c r="B14">
-        <v>8.818076062692272</v>
+        <v>1135.820546918559</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>2222334973161688</v>
+        <v>8423859330556308</v>
       </c>
       <c r="B15">
-        <v>8.837402359330222</v>
+        <v>1171.583586447031</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>2161711353007725</v>
+        <v>8006769139668328</v>
       </c>
       <c r="B16">
-        <v>8.848300309955446</v>
+        <v>1213.850841802695</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>2105283384646817</v>
+        <v>7624403263708238</v>
       </c>
       <c r="B17">
-        <v>8.863049173828726</v>
+        <v>1249.486817362279</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>2047493526814084</v>
+        <v>7267203373370603</v>
       </c>
       <c r="B18">
-        <v>8.867861937216418</v>
+        <v>1282.213704951338</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>1993647151279968</v>
+        <v>6937477952076242</v>
       </c>
       <c r="B19">
-        <v>8.888405561375386</v>
+        <v>1316.558563263599</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>1940413479117622</v>
+        <v>6628551701311793</v>
       </c>
       <c r="B20">
-        <v>8.899362463882584</v>
+        <v>1347.712528241058</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>1887407288010997</v>
+        <v>6341371253233346</v>
       </c>
       <c r="B21">
-        <v>8.902268434252033</v>
+        <v>1388.002313025213</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>1839499901684180</v>
+        <v>6074824817228481</v>
       </c>
       <c r="B22">
-        <v>8.924937849262397</v>
+        <v>1415.468801462711</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>1786879715325686</v>
+        <v>5821212301593261</v>
       </c>
       <c r="B23">
-        <v>8.918160771966976</v>
+        <v>1439.987685887732</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>1736681284206191</v>
+        <v>5584868591999961</v>
       </c>
       <c r="B24">
-        <v>8.915499071565737</v>
+        <v>1474.422578385925</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>1691886038709315</v>
+        <v>5362126769892170</v>
       </c>
       <c r="B25">
-        <v>8.928438883255724</v>
+        <v>1502.80880650495</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>1646291334620868</v>
+        <v>5152418528027842</v>
       </c>
       <c r="B26">
-        <v>8.932914561462216</v>
+        <v>1534.200510814418</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>1603029227881712</v>
+        <v>4955091886775439</v>
       </c>
       <c r="B27">
-        <v>8.947089712800045</v>
+        <v>1559.50551922699</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>1558877687782501</v>
+        <v>4767323939215572</v>
       </c>
       <c r="B28">
-        <v>8.944086723966894</v>
+        <v>1579.960653466398</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>1514313751845496</v>
+        <v>4589386791420536</v>
       </c>
       <c r="B29">
-        <v>8.931515031004363</v>
+        <v>1606.814774676863</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>1472771947523250</v>
+        <v>4421152315773766</v>
       </c>
       <c r="B30">
-        <v>8.933710035551657</v>
+        <v>1640.740046315945</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>1431468258443702</v>
+        <v>4262800223441688</v>
       </c>
       <c r="B31">
-        <v>8.928139755012689</v>
+        <v>1672.933823047689</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>1392816709023205</v>
+        <v>4112322773347566</v>
       </c>
       <c r="B32">
-        <v>8.931924726265164</v>
+        <v>1685.932141618406</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>1353271454852418</v>
+        <v>3967169392386248</v>
       </c>
       <c r="B33">
-        <v>8.921328465166132</v>
+        <v>1714.370787554185</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>1315039554759582</v>
+        <v>3831857815680398</v>
       </c>
       <c r="B34">
-        <v>8.914096699243778</v>
+        <v>1741.747324348378</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>1281003847765015</v>
+        <v>3700528438920616</v>
       </c>
       <c r="B35">
-        <v>8.925400939102335</v>
+        <v>1758.257086522875</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>1243589357913030</v>
+        <v>3576773362880530</v>
       </c>
       <c r="B36">
-        <v>8.908157037776849</v>
+        <v>1797.205889286196</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>1209611728046972</v>
+        <v>3459317938685000</v>
       </c>
       <c r="B37">
-        <v>8.908379780528991</v>
+        <v>1805.541956718523</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>1176528058820943</v>
+        <v>3344560905779494</v>
       </c>
       <c r="B38">
-        <v>8.901625913135808</v>
+        <v>1806.803715238577</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>1142378352948300</v>
+        <v>3234965521008600</v>
       </c>
       <c r="B39">
-        <v>8.884949479009149</v>
+        <v>1837.437053582752</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>1110241800534317</v>
+        <v>3131177911035948</v>
       </c>
       <c r="B40">
-        <v>8.879381448526042</v>
+        <v>1853.742690965094</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>1078126703490636</v>
+        <v>3030245219390050</v>
       </c>
       <c r="B41">
-        <v>8.857907453626121</v>
+        <v>1867.923187010199</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>1047014482617004</v>
+        <v>2934560767919951</v>
       </c>
       <c r="B42">
-        <v>8.835148567055773</v>
+        <v>1909.37457916128</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>1017504559623620</v>
+        <v>2843970211356723</v>
       </c>
       <c r="B43">
-        <v>8.827420993348598</v>
+        <v>1937.808892135144</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>990223603556778.5</v>
+        <v>2756685028462154</v>
       </c>
       <c r="B44">
-        <v>8.829719706638965</v>
+        <v>1926.058301324172</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>963332416769783.1</v>
+        <v>2670501825057144</v>
       </c>
       <c r="B45">
-        <v>8.816356826985791</v>
+        <v>1929.008749621522</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>935360489518177.8</v>
+        <v>2588896872363624</v>
       </c>
       <c r="B46">
-        <v>8.792340467337681</v>
+        <v>1967.927411170249</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>910024821999025.4</v>
+        <v>2511057782990632</v>
       </c>
       <c r="B47">
-        <v>8.794498673727208</v>
+        <v>2001.958974175203</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>883143688726141.4</v>
+        <v>2436875673515704</v>
       </c>
       <c r="B48">
-        <v>8.766243482901341</v>
+        <v>1992.775069526497</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>858292617318422</v>
+        <v>2362847713451634</v>
       </c>
       <c r="B49">
-        <v>8.742450087601673</v>
+        <v>1981.288370791793</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>834403528932309.1</v>
+        <v>2292334804507377</v>
       </c>
       <c r="B50">
-        <v>8.728987949365711</v>
+        <v>2050.730896938346</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>809575871435575.2</v>
+        <v>2227368709979709</v>
       </c>
       <c r="B51">
-        <v>8.707184170590901</v>
+        <v>2063.316731118106</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>787812468941165</v>
+        <v>2161498329632649</v>
       </c>
       <c r="B52">
-        <v>8.701864266456344</v>
+        <v>2034.636493209017</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>768046241559688.4</v>
+        <v>2098611755886994</v>
       </c>
       <c r="B53">
-        <v>8.699791707647437</v>
+        <v>2064.826132307944</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>744358213613895.2</v>
+        <v>2038315200150844</v>
       </c>
       <c r="B54">
-        <v>8.659921834160242</v>
+        <v>2093.731024746057</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>722665963229391.9</v>
+        <v>1980619616811610</v>
       </c>
       <c r="B55">
-        <v>8.642340818741973</v>
+        <v>2116.433690734419</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>703142117559892.1</v>
+        <v>1924892748689930</v>
       </c>
       <c r="B56">
-        <v>8.619428800223721</v>
+        <v>2124.821740027043</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>683447475332493.6</v>
+        <v>1870823582280143</v>
       </c>
       <c r="B57">
-        <v>8.587305597413565</v>
+        <v>2126.818885515852</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>662182757647950.8</v>
+        <v>1818281029320438</v>
       </c>
       <c r="B58">
-        <v>8.55330984141195</v>
+        <v>2122.217451291893</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>642387511386045.2</v>
+        <v>1766981414447868</v>
       </c>
       <c r="B59">
-        <v>8.526687153937569</v>
+        <v>2089.553121168984</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>626629580221131.5</v>
+        <v>1715791102042938</v>
       </c>
       <c r="B60">
-        <v>8.521546610787746</v>
+        <v>2110.264804302363</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>608331687521342.1</v>
+        <v>1668437439708948</v>
       </c>
       <c r="B61">
-        <v>8.481765192559905</v>
+        <v>2194.13163659253</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>589844702147419.6</v>
+        <v>1623629531460618</v>
       </c>
       <c r="B62">
-        <v>8.457431659185961</v>
+        <v>2161.836940090862</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>573554052837544.8</v>
+        <v>1577411194591332</v>
       </c>
       <c r="B63">
-        <v>8.44134745905048</v>
+        <v>2084.418134651626</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>557677487253539.8</v>
+        <v>1531909816684473</v>
       </c>
       <c r="B64">
-        <v>8.402501031900199</v>
+        <v>2120.808996798609</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>542005667906266.6</v>
+        <v>1489865607005450</v>
       </c>
       <c r="B65">
-        <v>8.380613902984578</v>
+        <v>2184.321119641211</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>524865218619916.3</v>
+        <v>1449242616360594</v>
       </c>
       <c r="B66">
-        <v>8.345372572490493</v>
+        <v>2206.365586523912</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>509203580731623.5</v>
+        <v>1410255860472178</v>
       </c>
       <c r="B67">
-        <v>8.30421250961667</v>
+        <v>2197.460367437709</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>498353575365178.6</v>
+        <v>1371460549015039</v>
       </c>
       <c r="B68">
-        <v>8.314988701088618</v>
+        <v>2151.603479305697</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>483472257976565.4</v>
+        <v>1333001375554604</v>
       </c>
       <c r="B69">
-        <v>8.277918239234488</v>
+        <v>2171.666456328212</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>467847523325191.8</v>
+        <v>1297066174940496</v>
       </c>
       <c r="B70">
-        <v>8.238044332116662</v>
+        <v>2255.49542976447</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>457290578141148.9</v>
+        <v>1263302976556206</v>
       </c>
       <c r="B71">
-        <v>8.244714337771375</v>
+        <v>2268.323740354751</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>444795409918746.8</v>
+        <v>1229565968495244</v>
       </c>
       <c r="B72">
-        <v>8.200258597288904</v>
+        <v>2214.185513088863</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>430420635123326.2</v>
+        <v>1195999042671401</v>
       </c>
       <c r="B73">
-        <v>8.1570237478478</v>
+        <v>2211.833959436892</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>417675670291706.1</v>
+        <v>1164029817667414</v>
       </c>
       <c r="B74">
-        <v>8.133415648494635</v>
+        <v>2237.221094538437</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>407651873836317.3</v>
+        <v>1132938483191742</v>
       </c>
       <c r="B75">
-        <v>8.116670275310749</v>
+        <v>2241.591313285518</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>396883802887547.6</v>
+        <v>1102773270432860</v>
       </c>
       <c r="B76">
-        <v>8.088880358460443</v>
+        <v>2251.781911394765</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>383460600338180.8</v>
+        <v>1073582770411513</v>
       </c>
       <c r="B77">
-        <v>8.038213737479538</v>
+        <v>2229.763057926006</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>372531822760701.9</v>
+        <v>1044418087216710</v>
       </c>
       <c r="B78">
-        <v>8.008805084894538</v>
+        <v>2214.442363110859</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>362655911381884.1</v>
+        <v>1016420084997185</v>
       </c>
       <c r="B79">
-        <v>7.965637402883551</v>
+        <v>2259.292624925679</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>352264814241892.2</v>
+        <v>989892120574512.8</v>
       </c>
       <c r="B80">
-        <v>7.936458042043896</v>
+        <v>2273.953636287103</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>342354830652424.6</v>
+        <v>963659587553831.8</v>
       </c>
       <c r="B81">
-        <v>7.928554854492968</v>
+        <v>2213.155123237</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>333026678322083.5</v>
+        <v>937118801259825</v>
       </c>
       <c r="B82">
-        <v>7.892075972683018</v>
+        <v>2213.638540332287</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>322737215664888.2</v>
+        <v>912350940435842.2</v>
       </c>
       <c r="B83">
-        <v>7.818672184507419</v>
+        <v>2269.899547951905</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>312316398408167.4</v>
+        <v>888404339828879.4</v>
       </c>
       <c r="B84">
-        <v>7.775060266840891</v>
+        <v>2257.632652212239</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>304407480931930.8</v>
+        <v>864657350479234</v>
       </c>
       <c r="B85">
-        <v>7.784864427730446</v>
+        <v>2243.209098872915</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>296226937483481</v>
+        <v>841687129680820.6</v>
       </c>
       <c r="B86">
-        <v>7.740533109777644</v>
+        <v>2241.968001566423</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>287206755341614.9</v>
+        <v>819156040894957.5</v>
       </c>
       <c r="B87">
-        <v>7.679058285830134</v>
+        <v>2253.344545312267</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>278124200568317.7</v>
+        <v>797627417479679.9</v>
       </c>
       <c r="B88">
-        <v>7.646300441738402</v>
+        <v>2277.50770067768</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>271231257372022.7</v>
+        <v>776709447643144.5</v>
       </c>
       <c r="B89">
-        <v>7.650842814443664</v>
+        <v>2277.326186288754</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>264145042625342.3</v>
+        <v>756290701807973.6</v>
       </c>
       <c r="B90">
-        <v>7.612796963806835</v>
+        <v>2265.272349178272</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>257420104820424.1</v>
+        <v>736245247789922.9</v>
       </c>
       <c r="B91">
-        <v>7.600172166810405</v>
+        <v>2283.804256119806</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>248964602928025.4</v>
+        <v>717218647452603.5</v>
       </c>
       <c r="B92">
-        <v>7.546444701446904</v>
+        <v>2252.644274166918</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>241451273270590.7</v>
+        <v>697656420841911.6</v>
       </c>
       <c r="B93">
-        <v>7.49818060848734</v>
+        <v>2254.041058938786</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>235127640451725.8</v>
+        <v>679705596006305</v>
       </c>
       <c r="B94">
-        <v>7.471656483816134</v>
+        <v>2270.739640959481</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>228835150890207.1</v>
+        <v>661377352669589.2</v>
       </c>
       <c r="B95">
-        <v>7.461329241522377</v>
+        <v>2166.872030699061</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>222148464172191.1</v>
+        <v>642712670716806.8</v>
       </c>
       <c r="B96">
-        <v>7.423547836345563</v>
+        <v>2085.039363393028</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>214978905153800.9</v>
+        <v>624017494117991.5</v>
       </c>
       <c r="B97">
-        <v>7.349723938712946</v>
+        <v>2110.866819573846</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>208360201449711.6</v>
+        <v>606883351886370.4</v>
       </c>
       <c r="B98">
-        <v>7.294290911359141</v>
+        <v>2157.272856960796</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>201875077601673.2</v>
+        <v>589921546537094</v>
       </c>
       <c r="B99">
-        <v>7.241080044800966</v>
+        <v>2232.317658211491</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>195750747949565.1</v>
+        <v>574854535925840.9</v>
       </c>
       <c r="B100">
-        <v>7.196457645446895</v>
+        <v>2270.574299441918</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>191213590141643.2</v>
+        <v>559236635776262.9</v>
       </c>
       <c r="B101">
-        <v>7.19638583723447</v>
+        <v>2249.658736663751</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102">
-        <v>185415045524699.7</v>
+        <v>544725752768000.6</v>
       </c>
       <c r="B102">
-        <v>7.145547880656994</v>
+        <v>2226.437867058345</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103">
-        <v>180625244334229.6</v>
+        <v>529583546322340.2</v>
       </c>
       <c r="B103">
-        <v>7.131771932509085</v>
+        <v>2228.586195303718</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104">
-        <v>175525878073285.7</v>
+        <v>515924746125526.8</v>
       </c>
       <c r="B104">
-        <v>7.102203955934255</v>
+        <v>2224.661485314265</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105">
-        <v>169929697950132.2</v>
+        <v>501475863583552.4</v>
       </c>
       <c r="B105">
-        <v>7.049893901845847</v>
+        <v>2126.058371995905</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106">
-        <v>165279326648789.8</v>
+        <v>487337161011733.1</v>
       </c>
       <c r="B106">
-        <v>7.031787865356316</v>
+        <v>2080.376504278324</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>159479663990531.6</v>
+        <v>473084241301165.8</v>
       </c>
       <c r="B107">
-        <v>6.967287235867848</v>
+        <v>2060.287706256613</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>152941014898737.7</v>
+        <v>459507159467977.9</v>
       </c>
       <c r="B108">
-        <v>6.886296069308379</v>
+        <v>2143.395241196853</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109">
-        <v>147580411788925</v>
+        <v>447101041069546.1</v>
       </c>
       <c r="B109">
-        <v>6.847874236124436</v>
+        <v>2192.872395962947</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110">
-        <v>143581178497931.9</v>
+        <v>434795896615935.4</v>
       </c>
       <c r="B110">
-        <v>6.832424040462432</v>
+        <v>2188.47788950709</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111">
-        <v>138991559357048</v>
+        <v>423021628194271.2</v>
       </c>
       <c r="B111">
-        <v>6.773209832387757</v>
+        <v>2263.20698118787</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112">
-        <v>135435426703971</v>
+        <v>412142104115597.7</v>
       </c>
       <c r="B112">
-        <v>6.788413074919083</v>
+        <v>2235.386485538937</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113">
-        <v>131995434529235.6</v>
+        <v>400675772861443.8</v>
       </c>
       <c r="B113">
-        <v>6.794303441718141</v>
+        <v>2102.787750279806</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114">
-        <v>129434200191543.9</v>
+        <v>389048045447838.6</v>
       </c>
       <c r="B114">
-        <v>6.799921766756362</v>
+        <v>2003.254429631114</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115">
-        <v>125273868071609.5</v>
+        <v>377137762706158.2</v>
       </c>
       <c r="B115">
-        <v>6.715456558392902</v>
+        <v>2067.970706523964</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116">
-        <v>120720911532872.4</v>
+        <v>366944687457425.6</v>
       </c>
       <c r="B116">
-        <v>6.646392202806036</v>
+        <v>2190.012142360399</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117">
-        <v>116642930143532.3</v>
+        <v>356830251501263.1</v>
       </c>
       <c r="B117">
-        <v>6.591385486935557</v>
+        <v>2072.950973211288</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118">
-        <v>113086224199024.2</v>
+        <v>346081759659882.8</v>
       </c>
       <c r="B118">
-        <v>6.524985013065522</v>
+        <v>2010.556303012454</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119">
-        <v>111040637208225.4</v>
+        <v>335967811982444</v>
       </c>
       <c r="B119">
-        <v>6.557222614220495</v>
+        <v>2046.399926520149</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120">
-        <v>107384959018382.5</v>
+        <v>326183743497658.7</v>
       </c>
       <c r="B120">
-        <v>6.524529082102739</v>
+        <v>2026.783424520295</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121">
-        <v>104972210606049.3</v>
+        <v>316462289471437.1</v>
       </c>
       <c r="B121">
-        <v>6.541075277512582</v>
+        <v>2005.248615781484</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>102369572816727.1</v>
+        <v>307056324991006.2</v>
       </c>
       <c r="B122">
-        <v>6.500046610756037</v>
+        <v>2052.358617574509</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123">
-        <v>98891484073123.3</v>
+        <v>298329383131271.8</v>
       </c>
       <c r="B123">
-        <v>6.441229893838327</v>
+        <v>2040.743361709557</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124">
-        <v>94621662147545.44</v>
+        <v>289338506124639.5</v>
       </c>
       <c r="B124">
-        <v>6.357017647144708</v>
+        <v>2024.24615670514</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>92496290212866.95</v>
+        <v>281005488591002</v>
       </c>
       <c r="B125">
-        <v>6.36756043624321</v>
+        <v>2011.395003462439</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126">
-        <v>90408571468876.98</v>
+        <v>272406046235556.7</v>
       </c>
       <c r="B126">
-        <v>6.358332519183828</v>
+        <v>1931.567731437402</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>87856528985815.31</v>
+        <v>263912837752824.8</v>
       </c>
       <c r="B127">
-        <v>6.363440233406124</v>
+        <v>1886.294695351465</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128">
-        <v>84921671026524.89</v>
+        <v>255448867691573.8</v>
       </c>
       <c r="B128">
-        <v>6.330808272492705</v>
+        <v>1854.563831847121</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129">
-        <v>82151585390196.44</v>
+        <v>247218668357003.8</v>
       </c>
       <c r="B129">
-        <v>6.251653342160637</v>
+        <v>1923.906668628881</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130">
-        <v>78934569135514.61</v>
+        <v>239874878010347.6</v>
       </c>
       <c r="B130">
-        <v>6.153235121394643</v>
+        <v>2042.118396132787</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131">
-        <v>77764963578107.23</v>
+        <v>232982062257225.2</v>
       </c>
       <c r="B131">
-        <v>6.250100676148057</v>
+        <v>2038.88592138306</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132">
-        <v>75207859891294.31</v>
+        <v>226025439133246.9</v>
       </c>
       <c r="B132">
-        <v>6.199801794650141</v>
+        <v>1842.405099025915</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133">
-        <v>73007734690748.42</v>
+        <v>218113300095508.9</v>
       </c>
       <c r="B133">
-        <v>6.142718645884006</v>
+        <v>1780.820378928296</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134">
-        <v>70047460975371.96</v>
+        <v>211180970659966.9</v>
       </c>
       <c r="B134">
-        <v>6.041749261450631</v>
+        <v>1836.640164906875</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>67105909038966.47</v>
+        <v>204177454559164.6</v>
       </c>
       <c r="B135">
-        <v>5.973328811986477</v>
+        <v>1884.019200120175</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>66081531241624.73</v>
+        <v>198046121773611.5</v>
       </c>
       <c r="B136">
-        <v>6.029715172264432</v>
+        <v>2025.484144543433</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137">
-        <v>63797596738980.61</v>
+        <v>192326860703061</v>
       </c>
       <c r="B137">
-        <v>5.941977978668195</v>
+        <v>1903.307240186587</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138">
-        <v>61812326896086.48</v>
+        <v>185799010521659.4</v>
       </c>
       <c r="B138">
-        <v>5.912588965047624</v>
+        <v>1823.966645915589</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139">
-        <v>59104524329780.92</v>
+        <v>179980779635377.2</v>
       </c>
       <c r="B139">
-        <v>5.811787832605682</v>
+        <v>2012.61547306519</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140">
-        <v>57077743758404.8</v>
+        <v>174960541482868.9</v>
       </c>
       <c r="B140">
-        <v>5.752775232546247</v>
+        <v>1995.088112508816</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141">
-        <v>55011467098134.2</v>
+        <v>169352067301936.3</v>
       </c>
       <c r="B141">
-        <v>5.682967636948578</v>
+        <v>1844.351315265219</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142">
-        <v>53874696130819.09</v>
+        <v>163831712399651.1</v>
       </c>
       <c r="B142">
-        <v>5.70980305238327</v>
+        <v>1796.728918405014</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143">
-        <v>52556057929787</v>
+        <v>158300648615769.5</v>
       </c>
       <c r="B143">
-        <v>5.68984222781096</v>
+        <v>1645.637366614322</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144">
-        <v>50727241040810.73</v>
+        <v>152172984297417.9</v>
       </c>
       <c r="B144">
-        <v>5.619972296532134</v>
+        <v>1529.571249000666</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145">
-        <v>49453625654908.48</v>
+        <v>146242782263419.5</v>
       </c>
       <c r="B145">
-        <v>5.610398586647854</v>
+        <v>1522.249550616855</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146">
-        <v>47784063269590.1</v>
+        <v>140529278964646.4</v>
       </c>
       <c r="B146">
-        <v>5.529377966836016</v>
+        <v>1636.61068112736</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147">
-        <v>45938333397620.34</v>
+        <v>135835818159541.8</v>
       </c>
       <c r="B147">
-        <v>5.462103384651747</v>
+        <v>1847.511366742146</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148">
-        <v>44799623081352.02</v>
+        <v>131618210022230.4</v>
       </c>
       <c r="B148">
-        <v>5.495069709189718</v>
+        <v>1866.529896258991</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149">
-        <v>43222880613934.34</v>
+        <v>127289409614644.4</v>
       </c>
       <c r="B149">
-        <v>5.450799056865433</v>
+        <v>1698.815395314094</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150">
-        <v>43010225514348.97</v>
+        <v>122536895779465</v>
       </c>
       <c r="B150">
-        <v>5.532703007975007</v>
+        <v>1656.75966307425</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151">
-        <v>41234847752389.52</v>
+        <v>118325241727485.1</v>
       </c>
       <c r="B151">
-        <v>5.437399873214298</v>
+        <v>1680.982705481156</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>40210359922460.62</v>
+        <v>114005565117579.2</v>
       </c>
       <c r="B152">
-        <v>5.471680933591837</v>
+        <v>1591.237222652985</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>39925188771457.48</v>
+        <v>109641763050928.3</v>
       </c>
       <c r="B153">
-        <v>5.515807842281437</v>
+        <v>1596.153348909721</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154">
-        <v>38890726753235.58</v>
+        <v>105680186048676.1</v>
       </c>
       <c r="B154">
-        <v>5.412049977483679</v>
+        <v>1517.384626560157</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155">
-        <v>37652231889344.48</v>
+        <v>101200634595491.4</v>
       </c>
       <c r="B155">
-        <v>5.357066490253922</v>
+        <v>1680.04696325518</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156">
-        <v>36987661094851.41</v>
+        <v>98379487210348.2</v>
       </c>
       <c r="B156">
-        <v>5.402780972137568</v>
+        <v>1898.106502452308</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>36272991075721.7</v>
+        <v>94918798547572.41</v>
       </c>
       <c r="B157">
-        <v>5.381039506368377</v>
+        <v>1643.234838940957</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158">
-        <v>35720852080710.47</v>
+        <v>91378565545749.09</v>
       </c>
       <c r="B158">
-        <v>5.401110418804846</v>
+        <v>1571.564767785378</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>34769643247293.77</v>
+        <v>87871629782296.75</v>
       </c>
       <c r="B159">
-        <v>5.444176666820755</v>
+        <v>1651.799990208655</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>33253150215419.41</v>
+        <v>84931028560191.25</v>
       </c>
       <c r="B160">
-        <v>5.37177595312002</v>
+        <v>1585.163905119751</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161">
-        <v>33351267690611.66</v>
+        <v>81377890788966.86</v>
       </c>
       <c r="B161">
-        <v>5.455933340716324</v>
+        <v>1372.98150096631</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162">
-        <v>31435128379488.46</v>
+        <v>77747391812950.91</v>
       </c>
       <c r="B162">
-        <v>5.255067506345456</v>
+        <v>1384.404828400312</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163">
-        <v>29941431924607.69</v>
+        <v>74571367368633.25</v>
       </c>
       <c r="B163">
-        <v>5.210387522444877</v>
+        <v>1488.680961449915</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164">
-        <v>29003509772136.51</v>
+        <v>71676212051052.39</v>
       </c>
       <c r="B164">
-        <v>5.185557333999438</v>
+        <v>1445.925972541137</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165">
-        <v>28723174838753.83</v>
+        <v>68563344091120.38</v>
       </c>
       <c r="B165">
-        <v>5.220412559197954</v>
+        <v>1238.030920317066</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166">
-        <v>27510440296322.3</v>
+        <v>64964039384383</v>
       </c>
       <c r="B166">
-        <v>5.151550544073497</v>
+        <v>1240.277326854104</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167">
-        <v>26662324467996.57</v>
+        <v>62215052944527.97</v>
       </c>
       <c r="B167">
-        <v>5.176113117235997</v>
+        <v>1439.13551095879</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168">
-        <v>26178813525888.94</v>
+        <v>59724460234638.34</v>
       </c>
       <c r="B168">
-        <v>5.1950176902842</v>
+        <v>1335.950299157468</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169">
-        <v>25770008657675.94</v>
+        <v>56796734175481.46</v>
       </c>
       <c r="B169">
-        <v>5.242981080545411</v>
+        <v>1302.966258343408</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170">
-        <v>24928116018557.76</v>
+        <v>54441311773971.07</v>
       </c>
       <c r="B170">
-        <v>5.23086735359743</v>
+        <v>1586.879225984785</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171">
-        <v>23866165685004.4</v>
+        <v>52638706974066.41</v>
       </c>
       <c r="B171">
-        <v>5.158927973644825</v>
+        <v>1669.211292416378</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172">
-        <v>23059261194167.76</v>
+        <v>50619260416996.75</v>
       </c>
       <c r="B172">
-        <v>5.125782860163618</v>
+        <v>1474.713297666871</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173">
-        <v>21968947353170.96</v>
+        <v>48478539453880.48</v>
       </c>
       <c r="B173">
-        <v>5.041111838009878</v>
+        <v>1440.0215607959</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174">
-        <v>21240366774231.77</v>
+        <v>46539044438450.65</v>
       </c>
       <c r="B174">
-        <v>5.013499095945241</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
-        <v>20539765572872.31</v>
-      </c>
-      <c r="B175">
-        <v>4.970414753851989</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176">
-        <v>19792707934128.44</v>
-      </c>
-      <c r="B176">
-        <v>4.971616325379208</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>19474382330861.08</v>
-      </c>
-      <c r="B177">
-        <v>5.045433115596753</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
-        <v>19250751234660.22</v>
-      </c>
-      <c r="B178">
-        <v>5.090796243122565</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
-        <v>19470814243728.41</v>
-      </c>
-      <c r="B179">
-        <v>5.298164229494536</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>18771412131837.18</v>
-      </c>
-      <c r="B180">
-        <v>5.312973499660707</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
-        <v>18561599179882.89</v>
-      </c>
-      <c r="B181">
-        <v>5.39899064917164</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
-        <v>18357666721726.09</v>
-      </c>
-      <c r="B182">
-        <v>5.434007746692961</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>18075374084222.5</v>
-      </c>
-      <c r="B183">
-        <v>5.555153619829245</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
-        <v>17662828501723.11</v>
-      </c>
-      <c r="B184">
-        <v>5.645682424224299</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
-        <v>16807315442390.17</v>
-      </c>
-      <c r="B185">
-        <v>5.464917974219434</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
-        <v>15631555146280.03</v>
-      </c>
-      <c r="B186">
-        <v>5.198293907019903</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
-        <v>15061253442164.78</v>
-      </c>
-      <c r="B187">
-        <v>5.225468328969717</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
-        <v>14578481726141.25</v>
-      </c>
-      <c r="B188">
-        <v>5.224177243083425</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>14151694797137.04</v>
-      </c>
-      <c r="B189">
-        <v>5.13868027668869</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
-        <v>13560330119790.51</v>
-      </c>
-      <c r="B190">
-        <v>5.061827667737017</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
-        <v>13494953933355.46</v>
-      </c>
-      <c r="B191">
-        <v>5.250801420529178</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
-        <v>13585835191236.87</v>
-      </c>
-      <c r="B192">
-        <v>5.419265144764997</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193">
-        <v>13486463511863.71</v>
-      </c>
-      <c r="B193">
-        <v>5.511306012922427</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
-        <v>12874017604537.33</v>
-      </c>
-      <c r="B194">
-        <v>5.426247037831101</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195">
-        <v>12404345130226.58</v>
-      </c>
-      <c r="B195">
-        <v>5.398591658725524</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
-        <v>12064588810649.36</v>
-      </c>
-      <c r="B196">
-        <v>5.430114782592754</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197">
-        <v>11528070850714.41</v>
-      </c>
-      <c r="B197">
-        <v>5.386826728125672</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198">
-        <v>10821440837928.82</v>
-      </c>
-      <c r="B198">
-        <v>5.200126431625897</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199">
-        <v>10410688009088.76</v>
-      </c>
-      <c r="B199">
-        <v>5.140552812564819</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200">
-        <v>9915895036081.439</v>
-      </c>
-      <c r="B200">
-        <v>5.156554819985764</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201">
-        <v>9892870225125.801</v>
-      </c>
-      <c r="B201">
-        <v>5.389246182363112</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2">
-      <c r="A202">
-        <v>9927104827339.83</v>
-      </c>
-      <c r="B202">
-        <v>5.490321469164726</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
-        <v>9861480723116.756</v>
-      </c>
-      <c r="B203">
-        <v>5.608018636709411</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204">
-        <v>9185415361613.145</v>
-      </c>
-      <c r="B204">
-        <v>5.553024488935514</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205">
-        <v>9413424928061.672</v>
-      </c>
-      <c r="B205">
-        <v>5.911646226460908</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206">
-        <v>9364622030993.535</v>
-      </c>
-      <c r="B206">
-        <v>5.950033606913392</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207">
-        <v>9259649958666.359</v>
-      </c>
-      <c r="B207">
-        <v>6.108284222035846</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208">
-        <v>8817278655711.721</v>
-      </c>
-      <c r="B208">
-        <v>6.142144811798508</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
-        <v>8968757703646.473</v>
-      </c>
-      <c r="B209">
-        <v>6.396573879434244</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210">
-        <v>8802908380146.822</v>
-      </c>
-      <c r="B210">
-        <v>6.41484851578794</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
-        <v>8534162397720.188</v>
-      </c>
-      <c r="B211">
-        <v>6.501793575826999</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212">
-        <v>8470149267023.653</v>
-      </c>
-      <c r="B212">
-        <v>6.683077702630906</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213">
-        <v>8078504266191.326</v>
-      </c>
-      <c r="B213">
-        <v>6.550514638113998</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214">
-        <v>7830767126474.558</v>
-      </c>
-      <c r="B214">
-        <v>6.609456096870336</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215">
-        <v>7728587204860.526</v>
-      </c>
-      <c r="B215">
-        <v>6.722519150846167</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216">
-        <v>7713673803327.685</v>
-      </c>
-      <c r="B216">
-        <v>6.939943306719309</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
-        <v>7390433197926.428</v>
-      </c>
-      <c r="B217">
-        <v>7.093278529766619</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
-        <v>7464540932721.303</v>
-      </c>
-      <c r="B218">
-        <v>7.498101148403508</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219">
-        <v>7434131980502.706</v>
-      </c>
-      <c r="B219">
-        <v>7.518941534326154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220">
-        <v>7272076960505.64</v>
-      </c>
-      <c r="B220">
-        <v>7.750864114460406</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
-        <v>6912944916049.309</v>
-      </c>
-      <c r="B221">
-        <v>7.921709926639704</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>6741376899801.605</v>
-      </c>
-      <c r="B222">
-        <v>7.891063928918586</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
-        <v>6578621037181.054</v>
-      </c>
-      <c r="B223">
-        <v>7.750425449156281</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>6236865775867.523</v>
-      </c>
-      <c r="B224">
-        <v>7.796646287361527</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>6192631642434.562</v>
-      </c>
-      <c r="B225">
-        <v>8.196184311769052</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>6313088636181.47</v>
-      </c>
-      <c r="B226">
-        <v>8.451072916760978</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>6279359022522.573</v>
-      </c>
-      <c r="B227">
-        <v>8.686293976732433</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>6411082201689.26</v>
-      </c>
-      <c r="B228">
-        <v>9.355332163157311</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>6156854615617.912</v>
-      </c>
-      <c r="B229">
-        <v>9.367052720562162</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>6023805583143.785</v>
-      </c>
-      <c r="B230">
-        <v>9.848010341145452</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>5803493918144.095</v>
-      </c>
-      <c r="B231">
-        <v>10.08241473624034</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>5998061402421.512</v>
-      </c>
-      <c r="B232">
-        <v>10.57266049723532</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>5821494235683.901</v>
-      </c>
-      <c r="B233">
-        <v>10.94332877821081</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>5793120000555.31</v>
-      </c>
-      <c r="B234">
-        <v>12.34519905743747</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>5674115181068.973</v>
-      </c>
-      <c r="B235">
-        <v>12.4518871526862</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>5571721296266.701</v>
-      </c>
-      <c r="B236">
-        <v>12.19750505227656</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>5179569633754.032</v>
-      </c>
-      <c r="B237">
-        <v>12.73479489816721</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>4743461261651.556</v>
-      </c>
-      <c r="B238">
-        <v>13.25482832867136</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>4975563016782.911</v>
-      </c>
-      <c r="B239">
-        <v>14.37417352305486</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>5088918824265.108</v>
-      </c>
-      <c r="B240">
-        <v>15.4679616153161</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>5087014610941.252</v>
-      </c>
-      <c r="B241">
-        <v>16.81001675846425</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>4905684853934.186</v>
-      </c>
-      <c r="B242">
-        <v>17.36410161706722</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>4931820388484.298</v>
-      </c>
-      <c r="B243">
-        <v>19.69617827438245</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>5084689360580.002</v>
-      </c>
-      <c r="B244">
-        <v>22.55671673613533</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>4860576793075.072</v>
-      </c>
-      <c r="B245">
-        <v>21.32932589023494</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>4726955064605.448</v>
-      </c>
-      <c r="B246">
-        <v>23.46451120570061</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>4570441233534.844</v>
-      </c>
-      <c r="B247">
-        <v>30.13953085479273</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>4631991095803.415</v>
-      </c>
-      <c r="B248">
-        <v>31.54979597655297</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>4875704275899.109</v>
-      </c>
-      <c r="B249">
-        <v>36.13761412099196</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>4445272999699.465</v>
-      </c>
-      <c r="B250">
-        <v>64.07165350172714</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
-        <v>4330135914228.475</v>
-      </c>
-      <c r="B251">
-        <v>794.6742088272565</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
-        <v>3913455985212.001</v>
-      </c>
-      <c r="B252">
-        <v>775.8505347565108</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
-        <v>3837833225700.251</v>
-      </c>
-      <c r="B253">
-        <v>2717.538373239822</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
-        <v>3775620756640.13</v>
-      </c>
-      <c r="B254">
-        <v>1038.056882960493</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
-        <v>3482842481072.531</v>
-      </c>
-      <c r="B255">
-        <v>404.345272294141</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
-        <v>2934939661931.053</v>
-      </c>
-      <c r="B256">
-        <v>304.0262310926692</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
-        <v>2540653677248.041</v>
-      </c>
-      <c r="B257">
-        <v>452.8436067842337</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
-        <v>2387360331706.441</v>
-      </c>
-      <c r="B258">
-        <v>357.6375353067433</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
-        <v>1889138259061.579</v>
-      </c>
-      <c r="B259">
-        <v>210.9968628341347</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
-        <v>1513508978620.916</v>
-      </c>
-      <c r="B260">
-        <v>199.8143251658008</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261">
-        <v>1149859550236.134</v>
-      </c>
-      <c r="B261">
-        <v>286.9552829076145</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262">
-        <v>1122415666220.822</v>
-      </c>
-      <c r="B262">
-        <v>452.3545876650313</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263">
-        <v>907687210195.0702</v>
-      </c>
-      <c r="B263">
-        <v>310.7309893469841</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264">
-        <v>837312877145.2448</v>
-      </c>
-      <c r="B264">
-        <v>460.2808241533331</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265">
-        <v>730139651137.6201</v>
-      </c>
-      <c r="B265">
-        <v>457.1785646425189</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266">
-        <v>681440236863.5354</v>
-      </c>
-      <c r="B266">
-        <v>743.4024480943127</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267">
-        <v>640674560878.1337</v>
-      </c>
-      <c r="B267">
-        <v>311.7713751234181</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268">
-        <v>480877125137.9879</v>
-      </c>
-      <c r="B268">
-        <v>104.3722484858083</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269">
-        <v>190999402065.6915</v>
-      </c>
-      <c r="B269">
-        <v>66.64950060388489</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270">
-        <v>201181981547.8968</v>
-      </c>
-      <c r="B270">
-        <v>-251.2426274181209</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271">
-        <v>269152387491.9953</v>
-      </c>
-      <c r="B271">
-        <v>-287.154355761666</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272">
-        <v>292663348597.1287</v>
-      </c>
-      <c r="B272">
-        <v>-2081.157055019234</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273">
-        <v>282877417399.8491</v>
-      </c>
-      <c r="B273">
-        <v>-636.447135637456</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274">
-        <v>336042970237.7738</v>
-      </c>
-      <c r="B274">
-        <v>-311.5374998722739</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275">
-        <v>388154611665.8789</v>
-      </c>
-      <c r="B275">
-        <v>-324.1253608046017</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276">
-        <v>452923334071.531</v>
-      </c>
-      <c r="B276">
-        <v>-678.3840301124681</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277">
-        <v>453317285672.2996</v>
-      </c>
-      <c r="B277">
-        <v>165.2150362225092</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278">
-        <v>185128294992.7107</v>
-      </c>
-      <c r="B278">
-        <v>40.45650279401893</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279">
-        <v>6701282225.759495</v>
-      </c>
-      <c r="B279">
-        <v>5.709313104168167</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280">
-        <v>70570705786.99168</v>
-      </c>
-      <c r="B280">
-        <v>-53.92017416758953</v>
+        <v>1320.728382324262</v>
       </c>
     </row>
   </sheetData>
